--- a/Assessments/Time Log 2b.xlsx
+++ b/Assessments/Time Log 2b.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Total</t>
   </si>
@@ -118,7 +118,10 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>Prep for marking - reivew notes from meeting with Dyl, make up marking sheet/guide</t>
+    <t>Prep for marking - reivew notes from meeting, make up marking sheet/guide, reivew lecture 6 material</t>
+  </si>
+  <si>
+    <t>Mark 2 x assignments.  Take notes/questions for Dylan.  Abort task, ran out of ink in red pen.</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,21 +573,36 @@
         <v>42862</v>
       </c>
       <c r="B2" s="6">
-        <v>0.75</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="C2" s="6">
-        <v>0.76527777777777783</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Table1[[#This Row],[Finish Time]]-Table1[[#This Row],[Start Time]]</f>
+        <v>2.1527777777777812E-2</v>
+      </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="3">
+        <v>42862</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D3" s="4">
+        <f>Table1[[#This Row],[Finish Time]]-Table1[[#This Row],[Start Time]]</f>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -766,7 +784,7 @@
       </c>
       <c r="D33" s="5">
         <f>SUM(D2:D32)</f>
-        <v>0</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
   </sheetData>
